--- a/BaiTap/danh_sach_nhom.xlsx
+++ b/BaiTap/danh_sach_nhom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UIT\4th Semester\[CS106] Artifical Intelligence\LAB\LAB01\BaiTap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Python\Introduction-to-Artificial-Intelligence\BaiTap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9DB4B3-0131-4F51-9219-E76B74CE0647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E308C9B-5BE5-4225-A82A-9DCDF814D17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Họ tên</t>
   </si>
@@ -52,11 +52,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -69,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,14 +91,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,18 +403,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,28 +425,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>18521662</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="3">
+        <v>18521654</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18521297</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>